--- a/Documentation/Pokemon_learnset_rebalance/015_Beedrill.xlsx
+++ b/Documentation/Pokemon_learnset_rebalance/015_Beedrill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan ten Napel\Desktop\Overig\Pokémon ROM hacking\Changelog\Pokémon_learnset_rebalance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DD716E-7E53-4B46-9B4C-1A94516A8E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DFFD26-A8E0-4B4B-98F0-AF1C3FD25CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,16 +381,16 @@
     <t>Poison Jab</t>
   </si>
   <si>
-    <t>Agility</t>
-  </si>
-  <si>
     <t>Pin Missile</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Buzz</t>
+  </si>
+  <si>
     <t>Endeavor</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -862,7 +862,7 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -879,7 +879,7 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -893,7 +893,7 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -918,7 +918,7 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1153,7 +1153,7 @@
         <v>93</v>
       </c>
       <c r="F42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.35">
